--- a/silva_nochloronomito_taxa_table_ps10.xlsx
+++ b/silva_nochloronomito_taxa_table_ps10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliemeyer/Documents/GitHub/Dendrogyra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C0245CC-4D1E-B742-9F35-51DBB6F6C47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3D4B2166-7F4E-7D49-A26D-EE61ED0EFE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1080" windowWidth="26920" windowHeight="13980"/>
+    <workbookView xWindow="780" yWindow="860" windowWidth="26920" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="silva_nochloronomito_taxa_table" sheetId="1" r:id="rId1"/>
@@ -1452,10 +1452,13 @@
   <dimension ref="A1:FX75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:180" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
